--- a/results/intermediate_result/Research_summary_byMesh.xlsx
+++ b/results/intermediate_result/Research_summary_byMesh.xlsx
@@ -453,8 +453,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This researcher mainly focused on understanding the mechanisms of behavior and behavioral sciences in relation to pathological conditions, including infections, neoplasms, and various diseases such as virus, lung, respiratory tract, nutritional, and metabolic diseases, with an emphasis on psychology and RNA virus infections.
-This researcher has mainly contributed to integrating information science, health services administration, and medical informatics to enhance health care quality, access, and evaluation through advanced computing methodologies, epidemiologic methods, and artificial intelligence, while considering population characteristics, public health, and social sciences to improve patient care management, clinical studies, and health care delivery systems.</t>
+          <t>This researcher mainly focused on understanding the behavioral mechanisms and disciplines in relation to pathological conditions, including infections, neoplasms, and respiratory diseases, with an emphasis on psychological aspects and the impact of nutritional and metabolic factors, particularly in the context of RNA virus infections and other virus-related diseases.
+This researcher has mainly contributed to integrating information science, health services administration, and informatics to enhance health care quality, access, and evaluation through advanced methodologies such as artificial intelligence, data mining, and computational biology, while considering population characteristics, epidemiologic methods, and social sciences to improve public health outcomes and health care delivery systems.</t>
         </is>
       </c>
     </row>
